--- a/Output/时间轴 示例.xlsx
+++ b/Output/时间轴 示例.xlsx
@@ -37,9 +37,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-这里填"0"就代表不限制副本,否则请填对应副本的RawZoneId.
+这里填"0"就代表不限制副本,否则请填对应副本的ZoneId.
 (木桩被视为匹配任意副本)
-可以通过AEAssist的Log中,"Enter new zone"这一句来发现RawZoneId和SubZoneId</t>
+可以通过AEAssist的Log中,"Enter new zone"这一句来发现ZoneId和SubZoneId</t>
         </r>
       </text>
     </comment>
@@ -62,6 +62,28 @@
           </rPr>
           <t xml:space="preserve">
 部分副本可能存在SubZone.这里就填SubZoneId</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Any代表不限制职业.否则就只有对应职业时间轴才生效</t>
         </r>
       </text>
     </comment>
@@ -123,13 +145,13 @@
     <t>AE</t>
   </si>
   <si>
-    <t>目标副本:</t>
+    <t>时间轴名称:</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>ZoneId:</t>
+    <t>限定副本的ZoneId:</t>
   </si>
   <si>
     <t>限定职业:</t>
@@ -320,10 +342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -336,6 +358,118 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -349,81 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -434,14 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,40 +501,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -490,11 +517,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -547,43 +569,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,127 +683,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,15 +748,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,9 +783,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,37 +840,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,133 +868,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Output/时间轴 示例.xlsx
+++ b/Output/时间轴 示例.xlsx
@@ -19,6 +19,28 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这里的名字会加载后会显示在Overlay上</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0">
       <text>
         <r>
@@ -38,7 +60,7 @@
           </rPr>
           <t xml:space="preserve">
 这里填"0"就代表不限制副本,否则请填对应副本的ZoneId.
-(木桩被视为匹配任意副本)
+(选中木桩时被视为匹配任意副本)
 可以通过AEAssist的Log中,"Enter new zone"这一句来发现ZoneId和SubZoneId</t>
         </r>
       </text>
@@ -1415,7 +1437,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Output/时间轴 示例.xlsx
+++ b/Output/时间轴 示例.xlsx
@@ -347,7 +347,7 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Action:Burst:是否允许爆发</t>
+    <t>Action:SwitchBurst:是否允许爆发</t>
   </si>
   <si>
     <t>#落地开启爆发</t>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
